--- a/Documents/To_Do_List.xlsx
+++ b/Documents/To_Do_List.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3827ED2E-8154-44A7-A4C8-44ACA8A09D31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9996C15A-D3F6-482E-BA00-BC615C60DDE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Technical" sheetId="1" r:id="rId1"/>
@@ -277,10 +277,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,7 +563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7919A074-8CA8-482C-A309-8088BB64D32A}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +894,7 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -907,18 +907,18 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>41</v>
       </c>
     </row>
